--- a/proj.macroinv/macroinv.xlsx
+++ b/proj.macroinv/macroinv.xlsx
@@ -593,16 +593,16 @@
     <t>QBR</t>
   </si>
   <si>
-    <t>nud</t>
+    <t>N</t>
   </si>
   <si>
-    <t>llau</t>
+    <t>LL</t>
   </si>
   <si>
-    <t>cond</t>
+    <t>C</t>
   </si>
   <si>
-    <t>mapa</t>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1027,12 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,12 +1079,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1100,12 +1088,6 @@
     <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1114,6 +1096,12 @@
     </xf>
     <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -30165,7 +30153,7 @@
       <c r="E1" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="64" t="s">
         <v>169</v>
       </c>
       <c r="G1" s="51" t="s">
@@ -31559,740 +31547,740 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="68"/>
+    <col min="1" max="1" width="11.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:12" s="81" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="81" t="s">
+      <c r="H1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67">
+      <c r="C2" s="65">
         <v>1</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="65">
         <v>98</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="66">
         <v>67</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="65">
         <v>55</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="65">
         <v>2.0760000000000001</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="65">
         <v>203</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="65">
         <v>2</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="65">
         <v>98</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>118</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="65">
         <v>55</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="65">
         <v>1.7250000000000001</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="65">
         <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="65">
         <v>3</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="65">
         <v>108</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="66">
         <v>97</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="65">
         <v>55</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="65">
         <v>2.2290000000000001</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="65">
         <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="65">
         <v>1</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="65">
         <v>92</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="66">
         <v>76</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="66">
         <v>53</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="65">
         <v>1.6879999999999999</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="65">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="65">
         <v>2</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="65">
         <v>82</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="66">
         <v>105</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="66">
         <v>53</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="65">
         <v>1.7</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="65">
         <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="65">
         <v>3</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="65">
         <v>83</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="66">
         <v>65</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="66">
         <v>53</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="65">
         <v>1.911</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="65">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <v>1</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="68">
         <v>89</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="66">
         <v>116</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="66">
         <v>59</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="68">
         <v>1.879</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="68">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="68">
         <v>2</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="68">
         <v>118</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="66">
         <v>149</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="66">
         <v>59</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="68">
         <v>2.347</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="68">
         <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="68">
         <v>3</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="68">
         <v>112</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="66">
         <v>98</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="66">
         <v>59</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="68">
         <v>2.2480000000000002</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="68">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="68">
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="68">
         <v>105</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="66">
         <v>97</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="66">
         <v>56</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="68">
         <v>2.1360000000000001</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="68">
         <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="68">
         <v>2</v>
       </c>
-      <c r="D12" s="70">
-        <v>114</v>
-      </c>
-      <c r="E12" s="68">
+      <c r="D12" s="68">
+        <v>114</v>
+      </c>
+      <c r="E12" s="66">
         <v>113</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="66">
         <v>56</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="68">
         <v>2.4340000000000002</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="68">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="70">
+      <c r="C13" s="68">
         <v>3</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="68">
         <v>105</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="66">
         <v>101</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="66">
         <v>56</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="68">
         <v>2.0590000000000002</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="68">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="69">
         <v>1</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="69">
         <v>116</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="66">
         <v>132</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="66">
         <v>67</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="69">
         <v>1.86</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="69">
         <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="69">
         <v>2</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="69">
         <v>90</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="66">
         <v>103</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="66">
         <v>67</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="69">
         <v>2.121</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="69">
         <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="69">
         <v>3</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="69">
         <v>131</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="66">
         <v>122</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="66">
         <v>67</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="69">
         <v>2.4820000000000002</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="69">
         <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="69">
         <v>1</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="69">
         <v>137</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="66">
         <v>138</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="66">
         <v>60</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="69">
         <v>2.3580000000000001</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="69">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="69">
         <v>2</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="69">
         <v>112</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="66">
         <v>103</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="66">
         <v>60</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="69">
         <v>2.3959999999999999</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="69">
         <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="69">
         <v>3</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="69">
         <v>133</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="66">
         <v>131</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="66">
         <v>60</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="69">
         <v>2.5350000000000001</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="69">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="70">
         <v>1</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="70">
         <v>122</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="66">
         <v>132</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="66">
         <v>60</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="70">
         <v>2.3410000000000002</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="70">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="70">
         <v>2</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="70">
         <v>125</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="66">
         <v>153</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="66">
         <v>60</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="70">
         <v>2.2389999999999999</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="70">
         <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="70">
         <v>3</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="70">
         <v>112</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="66">
         <v>154</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="66">
         <v>60</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="70">
         <v>2.2189999999999999</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="70">
         <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="70">
         <v>1</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="70">
         <v>91</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="66">
         <v>117</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="68">
+      <c r="G23" s="66">
         <v>57</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="70">
         <v>2.464</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="70">
         <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <v>2</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <v>131</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="66">
         <v>135</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="66">
         <v>57</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="70">
         <v>2.6059999999999999</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="70">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="70">
         <v>3</v>
       </c>
-      <c r="D25" s="72">
-        <v>114</v>
-      </c>
-      <c r="E25" s="68">
+      <c r="D25" s="70">
+        <v>114</v>
+      </c>
+      <c r="E25" s="66">
         <v>124</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="66">
         <v>57</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="70">
         <v>2.3769999999999998</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="70">
         <v>153</v>
       </c>
     </row>
@@ -32306,747 +32294,747 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="76" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="76"/>
+    <col min="1" max="1" width="11.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="74" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="74" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="74" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="74" t="s">
+      <c r="H1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="72" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86">
+      <c r="C2" s="82">
         <v>1</v>
       </c>
-      <c r="D2" s="86">
+      <c r="D2" s="82">
         <v>98</v>
       </c>
-      <c r="E2" s="87">
+      <c r="E2" s="83">
         <v>67</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="89">
+      <c r="G2" s="82">
+        <v>52</v>
+      </c>
+      <c r="H2" s="82">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="I2" s="82">
+        <v>203</v>
+      </c>
+      <c r="L2" s="31"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="82">
+        <v>2</v>
+      </c>
+      <c r="D3" s="82">
+        <v>98</v>
+      </c>
+      <c r="E3" s="83">
+        <v>118</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="82">
+        <v>60</v>
+      </c>
+      <c r="H3" s="82">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="I3" s="82">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="82">
+        <v>3</v>
+      </c>
+      <c r="D4" s="82">
+        <v>108</v>
+      </c>
+      <c r="E4" s="83">
+        <v>97</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="82">
+        <v>53</v>
+      </c>
+      <c r="H4" s="82">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="I4" s="82">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="82">
+        <v>1</v>
+      </c>
+      <c r="D5" s="82">
+        <v>92</v>
+      </c>
+      <c r="E5" s="83">
+        <v>76</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="83">
+        <v>54</v>
+      </c>
+      <c r="H5" s="82">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="I5" s="82">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="82">
+        <v>2</v>
+      </c>
+      <c r="D6" s="82">
+        <v>82</v>
+      </c>
+      <c r="E6" s="83">
+        <v>105</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="83">
+        <v>56</v>
+      </c>
+      <c r="H6" s="82">
+        <v>1.7</v>
+      </c>
+      <c r="I6" s="82">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="82">
+        <v>3</v>
+      </c>
+      <c r="D7" s="82">
+        <v>83</v>
+      </c>
+      <c r="E7" s="83">
+        <v>65</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="83">
+        <v>54</v>
+      </c>
+      <c r="H7" s="82">
+        <v>1.911</v>
+      </c>
+      <c r="I7" s="82">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="85">
+        <v>1</v>
+      </c>
+      <c r="D8" s="85">
+        <v>89</v>
+      </c>
+      <c r="E8" s="83">
+        <v>116</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="83">
+        <v>58</v>
+      </c>
+      <c r="H8" s="85">
+        <v>1.879</v>
+      </c>
+      <c r="I8" s="85">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="85">
+        <v>2</v>
+      </c>
+      <c r="D9" s="85">
+        <v>118</v>
+      </c>
+      <c r="E9" s="83">
+        <v>149</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="83">
+        <v>62</v>
+      </c>
+      <c r="H9" s="85">
+        <v>2.347</v>
+      </c>
+      <c r="I9" s="85">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="85">
+        <v>3</v>
+      </c>
+      <c r="D10" s="85">
+        <v>112</v>
+      </c>
+      <c r="E10" s="83">
+        <v>98</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="83">
+        <v>58</v>
+      </c>
+      <c r="H10" s="85">
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="I10" s="85">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="85">
+        <v>1</v>
+      </c>
+      <c r="D11" s="85">
+        <v>105</v>
+      </c>
+      <c r="E11" s="83">
+        <v>97</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="83">
         <v>55</v>
       </c>
-      <c r="H2" s="86">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="I2" s="86">
-        <v>203</v>
-      </c>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="H11" s="85">
+        <v>2.1360000000000001</v>
+      </c>
+      <c r="I11" s="85">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="85">
+        <v>2</v>
+      </c>
+      <c r="D12" s="85">
+        <v>114</v>
+      </c>
+      <c r="E12" s="83">
+        <v>113</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="83">
+        <v>56</v>
+      </c>
+      <c r="H12" s="85">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I12" s="85">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="85">
+        <v>3</v>
+      </c>
+      <c r="D13" s="85">
+        <v>105</v>
+      </c>
+      <c r="E13" s="83">
+        <v>101</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="83">
+        <v>55</v>
+      </c>
+      <c r="H13" s="85">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="I13" s="85">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C14" s="86">
+        <v>1</v>
+      </c>
+      <c r="D14" s="86">
+        <v>116</v>
+      </c>
+      <c r="E14" s="83">
+        <v>132</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="83">
+        <v>65</v>
+      </c>
+      <c r="H14" s="86">
+        <v>1.86</v>
+      </c>
+      <c r="I14" s="86">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="86">
         <v>2</v>
       </c>
-      <c r="D3" s="86">
-        <v>98</v>
-      </c>
-      <c r="E3" s="87">
-        <v>118</v>
-      </c>
-      <c r="F3" s="88" t="s">
+      <c r="D15" s="86">
+        <v>90</v>
+      </c>
+      <c r="E15" s="83">
+        <v>103</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="83">
+        <v>83</v>
+      </c>
+      <c r="H15" s="86">
+        <v>2.121</v>
+      </c>
+      <c r="I15" s="86">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="86">
+        <v>3</v>
+      </c>
+      <c r="D16" s="86">
+        <v>131</v>
+      </c>
+      <c r="E16" s="83">
+        <v>122</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="83">
+        <v>75</v>
+      </c>
+      <c r="H16" s="86">
+        <v>2.4820000000000002</v>
+      </c>
+      <c r="I16" s="86">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="86">
+        <v>1</v>
+      </c>
+      <c r="D17" s="86">
+        <v>137</v>
+      </c>
+      <c r="E17" s="83">
+        <v>138</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="83">
+        <v>66</v>
+      </c>
+      <c r="H17" s="86">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="I17" s="86">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="86">
         <v>2</v>
       </c>
-      <c r="G3" s="89">
-        <v>53.2</v>
-      </c>
-      <c r="H3" s="86">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="I3" s="86">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="D18" s="86">
+        <v>112</v>
+      </c>
+      <c r="E18" s="83">
+        <v>103</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="83">
+        <v>80</v>
+      </c>
+      <c r="H18" s="86">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="I18" s="86">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="86">
+        <v>3</v>
+      </c>
+      <c r="D19" s="86">
+        <v>133</v>
+      </c>
+      <c r="E19" s="83">
+        <v>131</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="83">
+        <v>65</v>
+      </c>
+      <c r="H19" s="86">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="I19" s="86">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C20" s="87">
+        <v>1</v>
+      </c>
+      <c r="D20" s="87">
+        <v>122</v>
+      </c>
+      <c r="E20" s="83">
+        <v>132</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="83">
+        <v>63</v>
+      </c>
+      <c r="H20" s="87">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="I20" s="87">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="87">
+        <v>2</v>
+      </c>
+      <c r="D21" s="87">
+        <v>125</v>
+      </c>
+      <c r="E21" s="83">
+        <v>153</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="83">
+        <v>65</v>
+      </c>
+      <c r="H21" s="87">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="I21" s="87">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="87">
         <v>3</v>
       </c>
-      <c r="D4" s="86">
-        <v>108</v>
-      </c>
-      <c r="E4" s="87">
-        <v>97</v>
-      </c>
-      <c r="F4" s="88" t="s">
+      <c r="D22" s="87">
+        <v>112</v>
+      </c>
+      <c r="E22" s="83">
+        <v>154</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="83">
+        <v>62</v>
+      </c>
+      <c r="H22" s="87">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="I22" s="87">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="87">
+        <v>1</v>
+      </c>
+      <c r="D23" s="87">
+        <v>91</v>
+      </c>
+      <c r="E23" s="83">
+        <v>117</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="83">
+        <v>64</v>
+      </c>
+      <c r="H23" s="87">
+        <v>2.464</v>
+      </c>
+      <c r="I23" s="87">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="87">
         <v>2</v>
       </c>
-      <c r="G4" s="89">
-        <v>53.5</v>
-      </c>
-      <c r="H4" s="86">
-        <v>2.2290000000000001</v>
-      </c>
-      <c r="I4" s="86">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="77" t="s">
+      <c r="D24" s="87">
+        <v>131</v>
+      </c>
+      <c r="E24" s="83">
+        <v>135</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="83">
+        <v>62</v>
+      </c>
+      <c r="H24" s="87">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="I24" s="87">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86">
-        <v>1</v>
-      </c>
-      <c r="D5" s="86">
-        <v>92</v>
-      </c>
-      <c r="E5" s="87">
-        <v>76</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="90">
-        <v>54</v>
-      </c>
-      <c r="H5" s="86">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="I5" s="86">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="86">
-        <v>2</v>
-      </c>
-      <c r="D6" s="86">
-        <v>82</v>
-      </c>
-      <c r="E6" s="87">
-        <v>105</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="90">
-        <v>55</v>
-      </c>
-      <c r="H6" s="86">
-        <v>1.7</v>
-      </c>
-      <c r="I6" s="86">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="86">
+      <c r="C25" s="87">
         <v>3</v>
       </c>
-      <c r="D7" s="86">
-        <v>83</v>
-      </c>
-      <c r="E7" s="87">
-        <v>65</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="90">
-        <v>53</v>
-      </c>
-      <c r="H7" s="86">
-        <v>1.911</v>
-      </c>
-      <c r="I7" s="86">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="91">
-        <v>1</v>
-      </c>
-      <c r="D8" s="91">
-        <v>89</v>
-      </c>
-      <c r="E8" s="87">
-        <v>116</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="90">
-        <v>59</v>
-      </c>
-      <c r="H8" s="91">
-        <v>1.879</v>
-      </c>
-      <c r="I8" s="91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="91">
-        <v>2</v>
-      </c>
-      <c r="D9" s="91">
-        <v>118</v>
-      </c>
-      <c r="E9" s="87">
-        <v>149</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="90">
-        <v>58</v>
-      </c>
-      <c r="H9" s="91">
-        <v>2.347</v>
-      </c>
-      <c r="I9" s="91">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="91">
-        <v>3</v>
-      </c>
-      <c r="D10" s="91">
-        <v>112</v>
-      </c>
-      <c r="E10" s="87">
-        <v>98</v>
-      </c>
-      <c r="F10" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="90">
-        <v>57</v>
-      </c>
-      <c r="H10" s="91">
-        <v>2.2480000000000002</v>
-      </c>
-      <c r="I10" s="91">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="91">
-        <v>1</v>
-      </c>
-      <c r="D11" s="91">
-        <v>105</v>
-      </c>
-      <c r="E11" s="87">
-        <v>97</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="90">
-        <v>56</v>
-      </c>
-      <c r="H11" s="91">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="I11" s="91">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="91">
-        <v>2</v>
-      </c>
-      <c r="D12" s="91">
-        <v>114</v>
-      </c>
-      <c r="E12" s="87">
-        <v>113</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="90">
-        <v>55</v>
-      </c>
-      <c r="H12" s="91">
-        <v>2.4340000000000002</v>
-      </c>
-      <c r="I12" s="91">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="91">
-        <v>3</v>
-      </c>
-      <c r="D13" s="91">
-        <v>105</v>
-      </c>
-      <c r="E13" s="87">
-        <v>101</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="90">
-        <v>58</v>
-      </c>
-      <c r="H13" s="91">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="I13" s="91">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="92">
-        <v>1</v>
-      </c>
-      <c r="D14" s="92">
-        <v>116</v>
-      </c>
-      <c r="E14" s="87">
-        <v>132</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="90">
-        <v>66</v>
-      </c>
-      <c r="H14" s="92">
-        <v>1.86</v>
-      </c>
-      <c r="I14" s="92">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="92">
-        <v>2</v>
-      </c>
-      <c r="D15" s="92">
-        <v>90</v>
-      </c>
-      <c r="E15" s="87">
-        <v>103</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="90">
-        <v>67</v>
-      </c>
-      <c r="H15" s="92">
-        <v>2.121</v>
-      </c>
-      <c r="I15" s="92">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="92">
-        <v>3</v>
-      </c>
-      <c r="D16" s="92">
-        <v>131</v>
-      </c>
-      <c r="E16" s="87">
-        <v>122</v>
-      </c>
-      <c r="F16" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="90">
-        <v>68</v>
-      </c>
-      <c r="H16" s="92">
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="I16" s="92">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="92">
-        <v>1</v>
-      </c>
-      <c r="D17" s="92">
-        <v>137</v>
-      </c>
-      <c r="E17" s="87">
-        <v>138</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="90">
-        <v>60</v>
-      </c>
-      <c r="H17" s="92">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="I17" s="92">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="92">
-        <v>2</v>
-      </c>
-      <c r="D18" s="92">
-        <v>112</v>
-      </c>
-      <c r="E18" s="87">
-        <v>103</v>
-      </c>
-      <c r="F18" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="90">
+      <c r="D25" s="87">
+        <v>114</v>
+      </c>
+      <c r="E25" s="83">
+        <v>124</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="83">
         <v>61</v>
       </c>
-      <c r="H18" s="92">
-        <v>2.3959999999999999</v>
-      </c>
-      <c r="I18" s="92">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="92">
-        <v>3</v>
-      </c>
-      <c r="D19" s="92">
-        <v>133</v>
-      </c>
-      <c r="E19" s="87">
-        <v>131</v>
-      </c>
-      <c r="F19" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="90">
-        <v>63</v>
-      </c>
-      <c r="H19" s="92">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="I19" s="92">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="93">
-        <v>1</v>
-      </c>
-      <c r="D20" s="93">
-        <v>122</v>
-      </c>
-      <c r="E20" s="87">
-        <v>132</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="90">
-        <v>60</v>
-      </c>
-      <c r="H20" s="93">
-        <v>2.3410000000000002</v>
-      </c>
-      <c r="I20" s="93">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="93">
-        <v>2</v>
-      </c>
-      <c r="D21" s="93">
-        <v>125</v>
-      </c>
-      <c r="E21" s="87">
-        <v>153</v>
-      </c>
-      <c r="F21" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="90">
-        <v>62</v>
-      </c>
-      <c r="H21" s="93">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="I21" s="93">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="93">
-        <v>3</v>
-      </c>
-      <c r="D22" s="93">
-        <v>112</v>
-      </c>
-      <c r="E22" s="87">
-        <v>154</v>
-      </c>
-      <c r="F22" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="90">
-        <v>61</v>
-      </c>
-      <c r="H22" s="93">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="I22" s="93">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="93">
-        <v>1</v>
-      </c>
-      <c r="D23" s="93">
-        <v>91</v>
-      </c>
-      <c r="E23" s="87">
-        <v>117</v>
-      </c>
-      <c r="F23" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="90">
-        <v>57</v>
-      </c>
-      <c r="H23" s="93">
-        <v>2.464</v>
-      </c>
-      <c r="I23" s="93">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="93">
-        <v>2</v>
-      </c>
-      <c r="D24" s="93">
-        <v>131</v>
-      </c>
-      <c r="E24" s="87">
-        <v>135</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="90">
-        <v>58</v>
-      </c>
-      <c r="H24" s="93">
-        <v>2.6059999999999999</v>
-      </c>
-      <c r="I24" s="93">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="93">
-        <v>3</v>
-      </c>
-      <c r="D25" s="93">
-        <v>114</v>
-      </c>
-      <c r="E25" s="87">
-        <v>124</v>
-      </c>
-      <c r="F25" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="90">
-        <v>56</v>
-      </c>
-      <c r="H25" s="93">
+      <c r="H25" s="87">
         <v>2.3769999999999998</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="87">
         <v>153</v>
       </c>
     </row>
@@ -60156,15 +60144,15 @@
       <c r="N3" s="45">
         <v>65.146347449768939</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -60207,15 +60195,15 @@
       <c r="N4" s="45">
         <v>73.801673309121398</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
@@ -60258,8 +60246,8 @@
       <c r="N5" s="45">
         <v>73.801673309121398</v>
       </c>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
